--- a/processed_data/Reformatted_Charts.xlsx
+++ b/processed_data/Reformatted_Charts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FrankRockwood\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FrankRockwood\Desktop\ASHA_Migration_2023\processed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7066DC1-B424-4AF8-8FE9-85435F4D4DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3CEBE5-EE00-41B4-9991-347F0604B1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="756" windowWidth="23040" windowHeight="11244" xr2:uid="{E06CF8D2-4CE0-4AF4-8737-C6E5D47864E1}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23040" windowHeight="11244" xr2:uid="{E06CF8D2-4CE0-4AF4-8737-C6E5D47864E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,6 +230,49 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>311122</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2BB55A-4A79-ECEC-55E7-4D69FEC1454C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="16555" t="32464" r="48835" b="13136"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6030686" y="11266714"/>
+          <a:ext cx="5253236" cy="3483429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -532,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6644E6C7-FC0A-4A98-B21B-3F91023BE9B4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC49" sqref="AC49"/>
+    <sheetView tabSelected="1" topLeftCell="G57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF69" sqref="AF69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
